--- a/pytigon/prj/schpytigondemo/templates/views_demo/v_xlsx_example.xlsx
+++ b/pytigon/prj/schpytigondemo/templates/views_demo/v_xlsx_example.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">{{name}}</t>
   </si>
   <si>
     <t xml:space="preserve">{{description}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:0{{x|num2str}}</t>
   </si>
 </sst>
 </file>
@@ -40,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,8 +103,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -121,28 +129,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
